--- a/data/administracion_de_tribunales/OP_LEY148Denegadas.xlsx
+++ b/data/administracion_de_tribunales/OP_LEY148Denegadas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\orlando.hernandez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\administracion_de_tribunales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E82B7F6-676C-442D-BAFF-8FE98B6BFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82440BA3-EFD3-480F-934C-3026B8EFE026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2928" yWindow="2928" windowWidth="17280" windowHeight="9420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-2021" sheetId="4" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +140,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,16 +424,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,12 +450,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -465,8 +469,10 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -476,8 +482,10 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -490,8 +498,9 @@
       <c r="D5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -501,17 +510,19 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
@@ -519,84 +530,94 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>1</v>
       </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>1</v>
       </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>SUM(B3:B14)</f>
         <v>13</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(D3:D14)</f>
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
         <v>5</v>
       </c>
@@ -611,16 +632,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A31"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,133 +658,170 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>SUM(B3:B14)</f>
         <v>11</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
         <v>4</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(D3:D14)</f>
         <v>4</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
         <v>3</v>
       </c>
@@ -778,17 +836,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -805,139 +863,174 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>SUM(B3:B14)</f>
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
         <v>2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(D3:D14)</f>
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
         <v>6</v>
       </c>
@@ -952,16 +1045,16 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:A34"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="42.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="42.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -978,151 +1071,182 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <f>SUM(B3:B14)</f>
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <f>SUM(C3:C14)</f>
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <f>SUM(D3:D14)</f>
         <v>6</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f>SUM(E3:E14)</f>
         <v>7</v>
       </c>
